--- a/Doc/1. 프로토콜/PC연동_프로토콜_V2_251112.xlsx
+++ b/Doc/1. 프로토콜/PC연동_프로토콜_V2_251112.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Water\2025\WORKS\2025_Tech_PC_Program\Doc\1. 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C52AB-61FF-41C6-97A6-F94B3C105DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E6F3F-DE3C-4A3C-9934-A74A3A0A8936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
+    <workbookView xWindow="-16320" yWindow="-15" windowWidth="16440" windowHeight="29040" activeTab="2" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
   </bookViews>
   <sheets>
     <sheet name="냉동검토용 프로토콜" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="197">
   <si>
     <t>STX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 기동시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,17 +532,6 @@
   </si>
   <si>
     <t>공조시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 : 핫가스
-1 : 냉각
-2 : 제빙
-3 : 보냉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP 출력상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,22 +541,6 @@
   </si>
   <si>
     <t>초 단위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP 안정시간 [HIGH]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP 안정시간 [LOW]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 RPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP 에러코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -836,6 +805,41 @@
   <si>
     <t>0.1초
 Ex) 6 : 0.6초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축기 안정시간 [HIGH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축기 안정시간 [LOW]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축기 출력상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축기 에러코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축기 현재 RPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 기동시간 High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 기동시간 Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 냉각
+1 : 제빙
+2 : 핫가스
+3 : 보냉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,63 +1110,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,46 +1212,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1753,70 +1760,70 @@
       <c r="L13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="28"/>
-      <c r="BD13" s="28"/>
-      <c r="BE13" s="28"/>
-      <c r="BF13" s="28"/>
-      <c r="BG13" s="28"/>
-      <c r="BH13" s="28"/>
-      <c r="BI13" s="28"/>
-      <c r="BJ13" s="28"/>
-      <c r="BK13" s="28"/>
-      <c r="BL13" s="28"/>
-      <c r="BM13" s="28"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="26"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="26"/>
+      <c r="BM13" s="26"/>
     </row>
     <row r="14" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="40">
         <v>0</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -1848,98 +1855,98 @@
       </c>
     </row>
     <row r="15" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="2:65" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="2:65" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44" t="s">
+      <c r="H16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+      <c r="C17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="38">
         <v>20</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="36" t="s">
         <v>71</v>
       </c>
       <c r="J18" s="27" t="s">
@@ -1956,30 +1963,30 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="38">
         <v>1</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="36" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="27" t="s">
@@ -2008,41 +2015,41 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="38">
         <v>5</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="36" t="s">
         <v>49</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -2062,45 +2069,45 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="43">
         <v>4</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="36" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="27" t="s">
@@ -2114,91 +2121,91 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="43">
         <v>7</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="43">
         <v>4</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="36" t="s">
         <v>42</v>
       </c>
       <c r="I28" s="27" t="s">
@@ -2218,99 +2225,99 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="38">
         <v>93</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="24"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="38">
         <v>7</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="38" t="s">
         <v>61</v>
       </c>
       <c r="K32" s="27" t="s">
@@ -2324,36 +2331,92 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="M13:BM13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
@@ -2378,75 +2441,19 @@
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="M13:BM13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2483,82 +2490,82 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="12"/>
@@ -2580,12 +2587,12 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2596,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DA00FB-797A-4EF3-AE36-C2C62770D12C}">
-  <dimension ref="B1:F119"/>
+  <dimension ref="B1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2617,24 +2624,24 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2646,1472 +2653,1464 @@
         <v>106</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
-        <f>B4+1</f>
+        <f t="shared" ref="B5:B23" si="0">B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="E6" s="43"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="22"/>
+      <c r="D11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="22"/>
+      <c r="D12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="22"/>
+      <c r="D13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="22"/>
+      <c r="D14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="22"/>
+      <c r="D15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
-        <f>B15+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="22"/>
+      <c r="D16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="2:5" ht="66" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>125</v>
+      <c r="C17" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="66" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="24"/>
+      <c r="C18" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="24"/>
+        <v>191</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="16">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="24"/>
+        <v>126</v>
+      </c>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="24"/>
+        <v>126</v>
+      </c>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="16">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
-        <f t="shared" ref="B24:B89" si="0">B23+1</f>
+        <f t="shared" ref="B24:B89" si="1">B23+1</f>
         <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="24"/>
+        <v>127</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="D25" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="24"/>
+      <c r="D26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="24"/>
+      <c r="D27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="24"/>
+      <c r="D28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="24"/>
+      <c r="D29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="24"/>
+      <c r="D30" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="24"/>
+      <c r="D31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B33" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="24"/>
+        <v>123</v>
+      </c>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>121</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="24"/>
+        <v>123</v>
+      </c>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="24"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="24"/>
+        <v>195</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="24"/>
+      <c r="D39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="36"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="24"/>
+      <c r="D40" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="24"/>
+      <c r="D41" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="24"/>
+      <c r="D42" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>139</v>
+      <c r="D43" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="24"/>
+      <c r="E44" s="51"/>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="24"/>
+        <v>126</v>
+      </c>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="24"/>
+        <v>126</v>
+      </c>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="24"/>
+        <v>136</v>
+      </c>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="24"/>
+        <v>136</v>
+      </c>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B49" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="24"/>
+      <c r="D49" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="51"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="24"/>
+        <v>141</v>
+      </c>
+      <c r="E50" s="51"/>
     </row>
     <row r="51" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B51" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="51"/>
     </row>
     <row r="52" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="24"/>
+        <v>186</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="51"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="24"/>
+      <c r="D53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="51"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="24"/>
+      <c r="D54" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="51"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="24"/>
+      <c r="D55" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="15"/>
+      <c r="D56" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="51"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="15"/>
+      <c r="D57" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="51"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="15"/>
+      <c r="D58" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="15"/>
+      <c r="D59" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="51"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="15"/>
+      <c r="D60" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="51"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="15"/>
+      <c r="D61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="51"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="15"/>
+      <c r="D62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="28"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D63" s="16"/>
-      <c r="E63" s="24" t="s">
-        <v>149</v>
+      <c r="E63" s="36" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="24"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="24"/>
+        <v>123</v>
+      </c>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="24"/>
+        <v>123</v>
+      </c>
+      <c r="E66" s="36"/>
     </row>
     <row r="67" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B67" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="24"/>
+        <v>147</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="36"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="24"/>
+      <c r="D68" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="36"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="24"/>
+      <c r="D69" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" s="24"/>
+      <c r="D70" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="36"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="24"/>
+      <c r="D71" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="36"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="24"/>
+      <c r="D72" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="36"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="24"/>
+      <c r="D73" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" s="36"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E74" s="24"/>
+      <c r="D74" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="36"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="24"/>
+      <c r="D75" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="36"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76" s="24"/>
+      <c r="D76" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="36"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="24"/>
+      <c r="D77" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" s="36"/>
     </row>
     <row r="78" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="22"/>
+        <v>151</v>
+      </c>
+      <c r="D79" s="45"/>
+      <c r="E79" s="43"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="D80" s="45"/>
+      <c r="E80" s="43"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="D81" s="45"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="37"/>
-      <c r="E82" s="22"/>
+        <v>154</v>
+      </c>
+      <c r="D82" s="45"/>
+      <c r="E82" s="43"/>
     </row>
     <row r="83" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="22"/>
+        <v>156</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" s="43"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="22"/>
+        <v>158</v>
+      </c>
+      <c r="D84" s="45"/>
+      <c r="E84" s="43"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="22"/>
+        <v>159</v>
+      </c>
+      <c r="D85" s="45"/>
+      <c r="E85" s="43"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" s="37"/>
-      <c r="E86" s="22"/>
+        <v>160</v>
+      </c>
+      <c r="D86" s="45"/>
+      <c r="E86" s="43"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="22"/>
+        <v>161</v>
+      </c>
+      <c r="D87" s="45"/>
+      <c r="E87" s="43"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="22"/>
+        <v>162</v>
+      </c>
+      <c r="D88" s="45"/>
+      <c r="E88" s="43"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="22"/>
+        <v>163</v>
+      </c>
+      <c r="D89" s="45"/>
+      <c r="E89" s="43"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="16">
-        <f t="shared" ref="B90:B119" si="1">B89+1</f>
+        <f t="shared" ref="B90:B117" si="2">B89+1</f>
         <v>87</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D90" s="37"/>
-      <c r="E90" s="22"/>
+        <v>164</v>
+      </c>
+      <c r="D90" s="45"/>
+      <c r="E90" s="43"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="22"/>
+        <v>165</v>
+      </c>
+      <c r="D91" s="45"/>
+      <c r="E91" s="43"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="22"/>
+        <v>166</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="43"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="22"/>
+        <v>167</v>
+      </c>
+      <c r="D93" s="45"/>
+      <c r="E93" s="43"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="D94" s="45"/>
+      <c r="E94" s="43"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="37"/>
-      <c r="E95" s="22"/>
+        <v>169</v>
+      </c>
+      <c r="D95" s="45"/>
+      <c r="E95" s="43"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D96" s="37"/>
-      <c r="E96" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="D96" s="45"/>
+      <c r="E96" s="43"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="22"/>
+        <v>171</v>
+      </c>
+      <c r="D97" s="45"/>
+      <c r="E97" s="43"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D98" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E98" s="22"/>
+      <c r="D98" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="43"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D99" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E99" s="22"/>
+      <c r="D99" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="43"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D100" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" s="22"/>
+      <c r="D100" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="43"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D101" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E101" s="22"/>
+      <c r="D101" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" s="43"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D102" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" s="22"/>
+      <c r="D102" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="43"/>
     </row>
     <row r="103" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B103" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>186</v>
+        <v>173</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B104" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E104" s="22"/>
+        <v>175</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E104" s="43"/>
     </row>
     <row r="105" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B105" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D105" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E105" s="22"/>
+        <v>176</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" s="43"/>
     </row>
     <row r="106" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B106" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" s="22"/>
+        <v>178</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="43"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D107" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E107" s="22"/>
+      <c r="D107" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="43"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E108" s="22"/>
+      <c r="D108" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" s="43"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D109" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" s="22"/>
+      <c r="D109" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" s="43"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E110" s="22"/>
+      <c r="D110" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="43"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D111" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E111" s="22"/>
+      <c r="D111" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" s="43"/>
     </row>
     <row r="112" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B112" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="16">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="C113" s="16"/>
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="D113" s="16"/>
-      <c r="E113" s="30"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="C114" s="16"/>
+      <c r="C114" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="D114" s="16"/>
-      <c r="E114" s="30"/>
+      <c r="E114" s="17"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="C115" s="16"/>
+      <c r="C115" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="D115" s="16"/>
-      <c r="E115" s="30"/>
+      <c r="E115" s="17"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="C116" s="16"/>
+      <c r="C116" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="D116" s="16"/>
-      <c r="E116" s="30"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="C117" s="16"/>
+      <c r="C117" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="D117" s="16"/>
-      <c r="E117" s="30"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="16">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="30"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="16">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="30"/>
+      <c r="E117" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E43:E62"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E4:E16"/>
+    <mergeCell ref="E17:E31"/>
+    <mergeCell ref="E32:E42"/>
     <mergeCell ref="E63:E77"/>
     <mergeCell ref="D83:D97"/>
     <mergeCell ref="D78:D82"/>
     <mergeCell ref="E78:E102"/>
     <mergeCell ref="E103:E111"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E4:E16"/>
-    <mergeCell ref="E17:E31"/>
-    <mergeCell ref="E32:E42"/>
-    <mergeCell ref="E43:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
